--- a/Excel/새 Microsoft Excel 워크시트.xlsx
+++ b/Excel/새 Microsoft Excel 워크시트.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20336"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5FB773B-FEEE-4F02-8AE2-B5EF5D35BDA3}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38959CC1-5C73-4CB0-AD0F-5559D5B681E9}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -19,8 +19,54 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>만든 이</author>
+  </authors>
+  <commentList>
+    <comment ref="H3" authorId="0" shapeId="0" xr:uid="{3A5B3F02-11C6-43A8-994E-B25E8E7FF33C}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>원화</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>기준</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="31">
   <si>
     <t>이름</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -71,6 +117,88 @@
   </si>
   <si>
     <t>021234-3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>상세주소</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>인사동</t>
+  </si>
+  <si>
+    <t>인사동</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>판교로
+1234번길</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>洪吉童</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>金庾信</t>
+  </si>
+  <si>
+    <t>李舜臣</t>
+  </si>
+  <si>
+    <t>01012345678</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>할인율</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>주문일</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>주문시각</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>전화 ☎</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>번호</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>등급</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>상</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>중</t>
+  </si>
+  <si>
+    <t>하</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">금액 </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="3"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">₩ </t>
+    </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -78,7 +206,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="176" formatCode="mm&quot;월&quot;\ dd&quot;일&quot;"/>
+  </numFmts>
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -93,16 +224,63 @@
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="돋움"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="HY중고딕"/>
+      <family val="1"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -110,11 +288,29 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -122,8 +318,54 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="12" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="12" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="18" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="제목 4" xfId="1" builtinId="19"/>
     <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -401,83 +643,202 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E6"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:L8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+      <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="3" width="9" style="1"/>
-    <col min="4" max="4" width="9" style="1" customWidth="1"/>
-    <col min="5" max="16384" width="9" style="1"/>
+    <col min="1" max="1" width="5.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="7.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9" style="1"/>
+    <col min="7" max="7" width="12.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="7.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9" style="1"/>
+    <col min="12" max="12" width="5.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="6" t="s">
         <v>8</v>
       </c>
+      <c r="B1" s="7"/>
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
+      <c r="E1" s="7"/>
+      <c r="F1" s="7"/>
+      <c r="G1" s="7"/>
     </row>
-    <row r="3" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="2" t="s">
+    <row r="3" spans="1:12" s="2" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="B3" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="D3" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="E3" s="17" t="s">
         <v>2</v>
       </c>
+      <c r="F3" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="G3" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="H3" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="I3" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="J3" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="K3" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="L3" s="17" t="s">
+        <v>26</v>
+      </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B4" s="1" t="s">
+    <row r="4" spans="1:12" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="8">
         <v>1</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="B4" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="C4" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="D4" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="E4" s="1" t="s">
+      <c r="E4" s="8" t="s">
         <v>3</v>
       </c>
+      <c r="F4" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="G4" s="8">
+        <v>102345678</v>
+      </c>
+      <c r="H4" s="8">
+        <v>123456789012</v>
+      </c>
+      <c r="I4" s="9">
+        <v>0.2</v>
+      </c>
+      <c r="J4" s="10">
+        <v>45736</v>
+      </c>
+      <c r="K4" s="11">
+        <v>0.39583333333333331</v>
+      </c>
+      <c r="L4" s="8" t="s">
+        <v>27</v>
+      </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B5" s="1" t="s">
+    <row r="5" spans="1:12" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="8">
+        <v>2</v>
+      </c>
+      <c r="B5" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D5" s="1" t="s">
+      <c r="C5" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="D5" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="E5" s="1" t="s">
+      <c r="E5" s="8" t="s">
         <v>4</v>
       </c>
+      <c r="F5" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="G5" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="H5" s="14">
+        <v>123456789012</v>
+      </c>
+      <c r="I5" s="15">
+        <v>0.2</v>
+      </c>
+      <c r="J5" s="10">
+        <v>45767</v>
+      </c>
+      <c r="K5" s="16">
+        <v>0.5708333333333333</v>
+      </c>
+      <c r="L5" s="8" t="s">
+        <v>28</v>
+      </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B6" s="1" t="s">
+    <row r="6" spans="1:12" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="8">
+        <v>3</v>
+      </c>
+      <c r="B6" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D6" s="1" t="s">
+      <c r="C6" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="D6" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="E6" s="1" t="s">
+      <c r="E6" s="8" t="s">
         <v>7</v>
       </c>
+      <c r="F6" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="G6" s="8"/>
+      <c r="H6" s="8"/>
+      <c r="I6" s="8">
+        <v>-500</v>
+      </c>
+      <c r="J6" s="10">
+        <v>45797</v>
+      </c>
+      <c r="K6" s="16">
+        <v>0.59722222222222221</v>
+      </c>
+      <c r="L6" s="8" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="I7" s="4"/>
+      <c r="J7" s="5"/>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="J8" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
+  <pageSetup paperSize="9" orientation="landscape" cellComments="asDisplayed" r:id="rId1"/>
+  <ignoredErrors>
+    <ignoredError sqref="G5" numberStoredAsText="1"/>
+  </ignoredErrors>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/Excel/새 Microsoft Excel 워크시트.xlsx
+++ b/Excel/새 Microsoft Excel 워크시트.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20336"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38959CC1-5C73-4CB0-AD0F-5559D5B681E9}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1FD39E3-CD40-4003-AFBA-129FD9BE352B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -647,7 +647,7 @@
   <dimension ref="A1:L8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I8" sqref="I8"/>
+      <selection activeCell="N3" sqref="N3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
